--- a/Test Data Driven/AI-Generated/TC14-Verify Successful Order Completion on Thank You Page.xlsx
+++ b/Test Data Driven/AI-Generated/TC14-Verify Successful Order Completion on Thank You Page.xlsx
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="85" customWidth="1" min="1" max="1"/>
+    <col width="84" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="82" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/proceedToCheckoutWithEmailAndMarketingInfo-test-data</t>
+          <t>Data Files/AI-Generated/Common/proceedToCheckoutWithEmailAndShippingInfo-test-data</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/enterShippingDetailsAndProceedToPayment-test-data</t>
+          <t>Data Files/AI-Generated/Common/fillShippingAddressAndContinueToPayment-test-data</t>
         </is>
       </c>
       <c r="D2" t="n">
